--- a/DL_ICP5/icp5.xlsx
+++ b/DL_ICP5/icp5.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9CA3E9-3E7F-4296-BD29-132A766D3A87}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375F5CC9-94E9-465F-B95B-6F33D0ADB4AB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
   <si>
     <t>DataSets</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t>Good</t>
+  </si>
+  <si>
+    <t>I have found Ploarity dataset with Adam optimiser gives the most accuracy and minute loss. And for the plain text using RMS optimiser and reducing the number of epochs we get the best results for accuracy. So in conclusion using RMS optimiser with number of epochs gives the best result. And same hyper parameters with adam optimiesr also gives better results.</t>
+  </si>
+  <si>
+    <t>Conclusion</t>
   </si>
 </sst>
 </file>
@@ -138,8 +144,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -422,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -434,46 +441,48 @@
     <col min="2" max="2" width="15.1796875" customWidth="1"/>
     <col min="3" max="3" width="19.453125" customWidth="1"/>
     <col min="4" max="4" width="11.81640625" customWidth="1"/>
-    <col min="5" max="5" width="18.36328125" customWidth="1"/>
-    <col min="6" max="6" width="11.54296875" customWidth="1"/>
-    <col min="7" max="7" width="15.08984375" customWidth="1"/>
-    <col min="8" max="8" width="13.6328125" customWidth="1"/>
+    <col min="5" max="5" width="6.1796875" customWidth="1"/>
+    <col min="6" max="6" width="6.08984375" customWidth="1"/>
+    <col min="7" max="7" width="6.6328125" customWidth="1"/>
+    <col min="8" max="8" width="6.7265625" customWidth="1"/>
     <col min="10" max="10" width="11.6328125" customWidth="1"/>
+    <col min="12" max="12" width="10.26953125" customWidth="1"/>
+    <col min="13" max="13" width="71.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -505,7 +514,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -533,14 +542,20 @@
       <c r="I3">
         <v>5.8220000000000001E-2</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="3">
         <v>0.961538</v>
       </c>
       <c r="K3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -568,11 +583,11 @@
       <c r="I4">
         <v>0.17860000000000001</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="3">
         <v>0.92</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -604,7 +619,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -636,7 +651,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -668,7 +683,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -696,14 +711,14 @@
       <c r="I8">
         <v>2.5676999999999999</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="3">
         <v>0.94</v>
       </c>
       <c r="K8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -735,7 +750,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -767,7 +782,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -799,7 +814,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -830,6 +845,9 @@
       <c r="J12">
         <v>0.55000000000000004</v>
       </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
